--- a/src/test/resources/Vytracktestdata.xlsx
+++ b/src/test/resources/Vytracktestdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamaldemir/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimucar/Desktop/GitDay/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C183250-0134-844D-AA10-75375100C696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584CF87E-7E72-154D-A997-2D5396437B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" activeTab="5" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="QA1-all" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="1473">
   <si>
     <t>username</t>
   </si>
@@ -4455,12 +4455,6 @@
   </si>
   <si>
     <t>UserUser123</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -9056,10 +9050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25414FC-EB42-5647-8F63-8642E32C4CF3}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9068,7 +9062,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9081,11 +9075,8 @@
       <c r="D1" t="s">
         <v>303</v>
       </c>
-      <c r="E1" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9098,11 +9089,8 @@
       <c r="D2" t="s">
         <v>305</v>
       </c>
-      <c r="E2" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9115,11 +9103,8 @@
       <c r="D3" t="s">
         <v>803</v>
       </c>
-      <c r="E3" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9132,11 +9117,8 @@
       <c r="D4" t="s">
         <v>805</v>
       </c>
-      <c r="E4" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9149,11 +9131,8 @@
       <c r="D5" t="s">
         <v>460</v>
       </c>
-      <c r="E5" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9166,11 +9145,8 @@
       <c r="D6" t="s">
         <v>439</v>
       </c>
-      <c r="E6" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -9183,11 +9159,8 @@
       <c r="D7" t="s">
         <v>501</v>
       </c>
-      <c r="E7" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -9200,11 +9173,8 @@
       <c r="D8" t="s">
         <v>935</v>
       </c>
-      <c r="E8" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -9217,11 +9187,8 @@
       <c r="D9" t="s">
         <v>937</v>
       </c>
-      <c r="E9" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -9234,11 +9201,8 @@
       <c r="D10" t="s">
         <v>939</v>
       </c>
-      <c r="E10" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -9251,11 +9215,8 @@
       <c r="D11" t="s">
         <v>603</v>
       </c>
-      <c r="E11" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -9268,11 +9229,8 @@
       <c r="D12" t="s">
         <v>1062</v>
       </c>
-      <c r="E12" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -9285,11 +9243,8 @@
       <c r="D13" t="s">
         <v>1064</v>
       </c>
-      <c r="E13" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -9302,11 +9257,8 @@
       <c r="D14" t="s">
         <v>1066</v>
       </c>
-      <c r="E14" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -9319,11 +9271,8 @@
       <c r="D15" t="s">
         <v>399</v>
       </c>
-      <c r="E15" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -9335,9 +9284,6 @@
       </c>
       <c r="D16" t="s">
         <v>636</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1474</v>
       </c>
     </row>
   </sheetData>
@@ -13594,10 +13540,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE515BF-79FE-384F-8A87-78DFBA2D1E2F}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="223" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13606,7 +13552,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13619,11 +13565,8 @@
       <c r="D1" t="s">
         <v>303</v>
       </c>
-      <c r="E1" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13636,11 +13579,8 @@
       <c r="D2" t="s">
         <v>305</v>
       </c>
-      <c r="E2" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13653,11 +13593,8 @@
       <c r="D3" t="s">
         <v>307</v>
       </c>
-      <c r="E3" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13670,11 +13607,8 @@
       <c r="D4" t="s">
         <v>309</v>
       </c>
-      <c r="E4" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13687,11 +13621,8 @@
       <c r="D5" t="s">
         <v>311</v>
       </c>
-      <c r="E5" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13704,11 +13635,8 @@
       <c r="D6" t="s">
         <v>313</v>
       </c>
-      <c r="E6" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -13721,11 +13649,8 @@
       <c r="D7" t="s">
         <v>491</v>
       </c>
-      <c r="E7" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -13738,11 +13663,8 @@
       <c r="D8" t="s">
         <v>493</v>
       </c>
-      <c r="E8" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -13755,11 +13677,8 @@
       <c r="D9" t="s">
         <v>495</v>
       </c>
-      <c r="E9" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -13772,11 +13691,8 @@
       <c r="D10" t="s">
         <v>480</v>
       </c>
-      <c r="E10" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -13789,11 +13705,8 @@
       <c r="D11" t="s">
         <v>369</v>
       </c>
-      <c r="E11" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -13806,11 +13719,8 @@
       <c r="D12" t="s">
         <v>528</v>
       </c>
-      <c r="E12" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -13823,11 +13733,8 @@
       <c r="D13" t="s">
         <v>652</v>
       </c>
-      <c r="E13" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -13840,11 +13747,8 @@
       <c r="D14" t="s">
         <v>557</v>
       </c>
-      <c r="E14" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -13857,11 +13761,8 @@
       <c r="D15" t="s">
         <v>482</v>
       </c>
-      <c r="E15" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -13873,9 +13774,6 @@
       </c>
       <c r="D16" t="s">
         <v>656</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1474</v>
       </c>
     </row>
   </sheetData>
@@ -18134,7 +18032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C30F00C-C683-0548-B7C4-02FB1EBCAEF1}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
